--- a/mySystem/mySystem/xls/LDPE/0 SOP-MFG-105-R01 制袋工序批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/LDPE/0 SOP-MFG-105-R01 制袋工序批生产记录封面.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\LDPE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19155" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="横版" sheetId="10" r:id="rId1"/>
@@ -15,13 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>颇尔奥星包装科技（北京）有限责任公司</t>
@@ -31,7 +37,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -46,6 +52,7 @@
         <sz val="22"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">制袋工序批生产记录
@@ -57,7 +64,7 @@
         <sz val="22"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Batch production record</t>
     </r>
@@ -69,6 +76,7 @@
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>制袋工序记录</t>
@@ -79,7 +87,7 @@
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -89,6 +97,7 @@
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>目录</t>
@@ -99,7 +108,7 @@
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -110,6 +119,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生产指令</t>
@@ -122,6 +132,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>序号</t>
@@ -134,6 +145,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>记</t>
@@ -144,7 +156,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -154,6 +166,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>录</t>
@@ -166,6 +179,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>页数</t>
@@ -178,6 +192,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>备注</t>
@@ -189,6 +204,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生产日期</t>
@@ -200,7 +216,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SOP-MFG-105-R01 </t>
     </r>
@@ -209,6 +225,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>制袋工序批生产记录封面</t>
@@ -223,6 +240,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产品代码</t>
@@ -234,6 +252,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生产数量</t>
@@ -245,6 +264,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产品批号</t>
@@ -256,7 +276,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>SOP-MFG-304-R01A 1#</t>
     </r>
@@ -265,6 +285,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>制袋工序生产指令</t>
@@ -276,7 +297,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>SOP-MFG-304-R02A 1#</t>
     </r>
@@ -285,6 +306,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>制袋机开机前确认表</t>
@@ -296,7 +318,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SOP-MFG-102-R01A </t>
     </r>
@@ -305,6 +327,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生产领料记录</t>
@@ -316,7 +339,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SOP-MFG-102-R02A </t>
     </r>
@@ -325,6 +348,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生产退料记录</t>
@@ -336,7 +360,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SOP-MFG-109-R01A </t>
     </r>
@@ -345,6 +369,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产品内包装记录</t>
@@ -359,7 +384,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SOP-MFG-111-R01A </t>
     </r>
@@ -368,6 +393,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产品外包装记录</t>
@@ -379,7 +405,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>SOP-MFG-304-R03A 1#</t>
     </r>
@@ -388,6 +414,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>制袋机运行记录</t>
@@ -399,7 +426,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SOP-MFG-110-R01A </t>
     </r>
@@ -408,6 +435,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>清场记录</t>
@@ -417,33 +445,28 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.xlsx</t>
     </r>
   </si>
   <si>
-    <t>SOP-MFG-304-R01A  LDPE生产日报表.xlsx</t>
-  </si>
-  <si>
-    <t>自动计算</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>汇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -452,27 +475,121 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SOP-MFG-108-R01A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制袋岗位交接班记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LDPE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内标签</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -481,17 +598,92 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>期</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LDPE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外标签</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QB-PA-PP-03-R01A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品外观和尺寸检验记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -501,15 +693,16 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -519,15 +712,16 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -539,192 +733,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">SOP-MFG-108-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋岗位交接班记录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">LDPE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内标签</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">LDPE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外标签</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">QB-PA-PP-03-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品外观和尺寸检验记录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>批</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>准</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">QB-PA-PP-03-R02A </t>
     </r>
@@ -733,23 +742,22 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产品热合强度检验记录</t>
     </r>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,201 +769,60 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -963,6 +830,7 @@
       <sz val="22"/>
       <color indexed="8"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -970,12 +838,14 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -983,204 +853,40 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1660,255 +1366,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1921,6 +1385,99 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1936,9 +1493,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1948,17 +1502,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1969,30 +1514,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2000,94 +1539,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2098,69 +1556,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2182,7 +1605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2227,7 +1650,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C0DCC0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2262,7 +1685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2297,7 +1720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2500,19 +1923,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="46.25" style="2" customWidth="1"/>
@@ -2526,7 +1949,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2537,368 +1960,342 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="66" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
-    <row r="3" ht="30.75" customHeight="1" spans="1:9">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="54"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="30.75" customHeight="1" spans="1:9">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="55"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A5" s="20">
-        <v>0</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="57"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="30"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A7" s="20">
-        <v>2</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="58"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="31"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A8" s="20">
-        <v>3</v>
-      </c>
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="58"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="31"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A9" s="20">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="58"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="31"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A10" s="20">
-        <v>5</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="58"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="31"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A11" s="20">
-        <v>6</v>
-      </c>
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="58"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="31"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A12" s="20">
-        <v>7</v>
-      </c>
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="58"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="31"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A13" s="20">
-        <v>8</v>
-      </c>
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="59"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="32"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A14" s="20">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="I15" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A15" s="20">
-        <v>10</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="61"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="59"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A16" s="20">
-        <v>11</v>
-      </c>
-      <c r="B16" s="21" t="s">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="43" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>28</v>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A17" s="20">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="61"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A18" s="20">
-        <v>13</v>
-      </c>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="23">
+        <v>14</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:9">
-      <c r="A19" s="46">
-        <v>14</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="62"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="23">
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.590277777777778" right="0.639583333333333" top="0.66875" bottom="0.275" header="0.314583333333333" footer="0.156944444444444"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+  <pageMargins left="0.59027777777777801" right="0.63958333333333295" top="0.66874999999999996" bottom="0.27500000000000002" header="0.31458333333333299" footer="0.156944444444444"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mySystem/mySystem/xls/LDPE/0 SOP-MFG-105-R01 制袋工序批生产记录封面.xlsx
+++ b/mySystem/mySystem/xls/LDPE/0 SOP-MFG-105-R01 制袋工序批生产记录封面.xlsx
@@ -72,46 +72,29 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>制袋工序记录</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
+      <t>生产指令</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>目录</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
+      <t>生产日期</t>
+    </r>
+  </si>
+  <si>
+    <t>本页</t>
   </si>
   <si>
     <r>
@@ -122,83 +105,264 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>生产指令</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>产品代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>序号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>生产数量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>记</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>产品批号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SOP-MFG-304-R01A 1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制袋工序生产指令</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SOP-MFG-304-R02A 1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制袋机开机前确认表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SOP-MFG-102-R01A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产领料记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SOP-MFG-102-R02A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产退料记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SOP-MFG-109-R01A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品内包装记录</t>
+    </r>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SOP-MFG-111-R01A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品外包装记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SOP-MFG-304-R03A 1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制袋机运行记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SOP-MFG-110-R01A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清场记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>页数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>备注</t>
-    </r>
-  </si>
-  <si>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -207,18 +371,37 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>生产日期</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SOP-MFG-105-R01 </t>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SOP-MFG-108-R01A </t>
     </r>
     <r>
       <rPr>
@@ -228,11 +411,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>制袋工序批生产记录封面</t>
-    </r>
-  </si>
-  <si>
-    <t>本页</t>
+      <t>制袋岗位交接班记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LDPE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内标签</t>
+    </r>
   </si>
   <si>
     <r>
@@ -243,10 +444,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品代码</t>
-    </r>
-  </si>
-  <si>
+      <t>审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -255,10 +463,40 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>生产数量</t>
-    </r>
-  </si>
-  <si>
+      <t>核</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LDPE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外标签</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QB-PA-PP-03-R01A </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -267,187 +505,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品批号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SOP-MFG-304-R01A 1#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋工序生产指令</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SOP-MFG-304-R02A 1#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋机开机前确认表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SOP-MFG-102-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产领料记录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SOP-MFG-102-R02A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产退料记录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SOP-MFG-109-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品内包装记录</t>
-    </r>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SOP-MFG-111-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品外包装记录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SOP-MFG-304-R03A 1#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋机运行记录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SOP-MFG-110-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清场记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
+      <t>产品外观和尺寸检验记录</t>
     </r>
   </si>
   <si>
@@ -459,16 +517,87 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>日</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QB-PA-PP-03-R02A </t>
     </r>
     <r>
       <rPr>
@@ -478,286 +607,37 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>期</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SOP-MFG-108-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋岗位交接班记录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LDPE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内标签</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LDPE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外标签</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">QB-PA-PP-03-R01A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品外观和尺寸检验记录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>批</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>准</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">QB-PA-PP-03-R02A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>产品热合强度检验记录</t>
     </r>
   </si>
   <si>
     <t>汇总</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP-MFG-105-R01 制袋工序批生产记录封面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">制袋工序记录 目录  </t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>记  录</t>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,20 +660,6 @@
     <font>
       <b/>
       <sz val="22"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -886,7 +752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1242,19 +1108,6 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -1372,7 +1225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,25 +1241,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1415,7 +1256,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1265,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1439,22 +1280,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1466,16 +1304,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1484,86 +1370,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1931,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1960,307 +1816,305 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>14</v>
+      <c r="B5" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="31"/>
+      <c r="B7" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="31"/>
+      <c r="B8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="31"/>
+      <c r="B9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="31"/>
+      <c r="B10" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="31"/>
+      <c r="B11" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="31"/>
+      <c r="B12" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="32"/>
+      <c r="B13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="33"/>
+      <c r="B14" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="58" t="s">
-        <v>25</v>
+      <c r="B15" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="59"/>
+      <c r="B16" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55" t="s">
+      <c r="B17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="58" t="s">
-        <v>32</v>
+      <c r="C17" s="18"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
         <v>14</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="60"/>
+      <c r="B18" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
@@ -2270,14 +2124,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59027777777777801" right="0.63958333333333295" top="0.66874999999999996" bottom="0.27500000000000002" header="0.31458333333333299" footer="0.156944444444444"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2294,7 +2150,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
